--- a/Tos.FoodProcs.Web/templates/genshizaiChoseiNyuryoku_cn_kino_nashi_vi.xlsx
+++ b/Tos.FoodProcs.Web/templates/genshizaiChoseiNyuryoku_cn_kino_nashi_vi.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\1.FP_Lite_Ver_2\trunk\src\01_FPLite\src\C#\Tos.FoodProcs.Web\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB90465E-B29C-4829-91C5-3769151208CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15495" windowHeight="13335"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,12 +19,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A:$L</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$8</definedName>
   </definedNames>
-  <calcPr calcId="101716" fullCalcOnLoad="1"/>
+  <calcPr calcId="101716"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Code</t>
     <phoneticPr fontId="1"/>
@@ -48,22 +54,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Adjustment date：</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Item type　    ：</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Output date  　：</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Output person  ：</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Input Material Adjustment</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -85,18 +75,31 @@
   </si>
   <si>
     <t>Packing style</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Adjustment date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Output date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Output person</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#,##0.000"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="182" formatCode="@* \:"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ ゴシック"/>
@@ -210,7 +213,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -239,10 +242,6 @@
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
@@ -275,19 +274,11 @@
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -299,23 +290,31 @@
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -353,7 +352,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -387,6 +386,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -421,9 +421,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -596,7 +597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -604,29 +605,28 @@
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" colorId="18" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="44.625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="21.625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="18.25" style="18" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="26.25" style="17" customWidth="1"/>
-    <col min="7" max="7" width="29.75" style="17" customWidth="1"/>
-    <col min="8" max="8" width="24.625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="16.625" style="17" customWidth="1"/>
-    <col min="10" max="10" width="19.375" style="17" customWidth="1"/>
-    <col min="11" max="11" width="19.5" style="17" customWidth="1"/>
-    <col min="12" max="12" width="23.125" style="19" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="17"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="44.625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="18.25" style="15" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="26.25" customWidth="1"/>
+    <col min="7" max="7" width="29.75" customWidth="1"/>
+    <col min="8" max="8" width="24.625" customWidth="1"/>
+    <col min="9" max="9" width="16.625" customWidth="1"/>
+    <col min="10" max="10" width="19.375" customWidth="1"/>
+    <col min="11" max="11" width="19.5" customWidth="1"/>
+    <col min="12" max="12" width="23.125" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="20.25" thickTop="1" thickBot="1">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C1" s="3"/>
       <c r="E1" s="4"/>
@@ -638,11 +638,11 @@
       <c r="K1" s="5"/>
       <c r="L1" s="6"/>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" ht="15.75" thickTop="1" thickBot="1">
-      <c r="A2" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="20"/>
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="17"/>
       <c r="C2" s="3"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -653,11 +653,10 @@
       <c r="K2" s="5"/>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" ht="15.75" thickTop="1" thickBot="1">
-      <c r="A3" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="16"/>
+    <row r="3" spans="1:12" s="2" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>6</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -668,8 +667,8 @@
       <c r="K3" s="5"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12" s="2" customFormat="1" ht="15.75" thickTop="1" thickBot="1">
-      <c r="A4" s="7"/>
+    <row r="4" spans="1:12" s="2" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="19"/>
       <c r="C4" s="3"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -680,12 +679,12 @@
       <c r="K4" s="5"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" ht="15" thickTop="1" thickBot="1">
-      <c r="A5" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="8"/>
+    <row r="5" spans="1:12" s="2" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="7"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="5"/>
@@ -695,12 +694,11 @@
       <c r="K5" s="5"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" s="2" customFormat="1" ht="15" thickTop="1" thickBot="1">
-      <c r="A6" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="8"/>
+    <row r="6" spans="1:12" s="2" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="7"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="5"/>
@@ -710,59 +708,59 @@
       <c r="K6" s="5"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12" s="2" customFormat="1" ht="15" thickTop="1" thickBot="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="15"/>
+    <row r="7" spans="1:12" s="2" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="14"/>
     </row>
-    <row r="8" spans="1:12" s="12" customFormat="1" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A8" s="21" t="s">
+    <row r="8" spans="1:12" s="11" customFormat="1" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="21" t="s">
+      <c r="F8" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="21" t="s">
+      <c r="J8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="L8" s="21" t="s">
+      <c r="L8" s="18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="14.25" customHeight="1" thickTop="1"/>
+    <row r="9" spans="1:12" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <printOptions gridLines="1"/>
